--- a/AfDD_2024_Annex_Table_Tab02.xlsx
+++ b/AfDD_2024_Annex_Table_Tab02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E79CC2-5C88-46F4-93B8-10E64612B531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B09B75-3B49-4C8A-8455-04CB813DB0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{AB255ADF-DC08-4AAE-A37E-3F49E86E2BEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F320892E-DD73-42AF-876F-7E139FED7110}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC011E1E-1699-4255-98A0-556E5A5E947A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD304AA-47DD-487E-8197-8948EE9A6B03}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14934,12 +14934,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8290AAF8-B9C1-4F9E-B158-7D25EFC3069D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{72874DA5-11D2-4785-AD35-CC25556365F3}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CDD971F2-36E9-487B-B66C-71B395A0E4C0}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{E5CB1383-A73C-4FF4-AABB-69E88107BEE6}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{CA16F1A9-AD28-4026-8D6A-66674E887EEE}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9DBF8A90-5A0A-41D9-A4E4-1B9AD0168AF2}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F8BC576-0E75-4EC0-A183-C1EC10FA0D17}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{49CC216B-F6F9-4B4C-B6F4-A80123DA858B}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{048FD755-5AEB-472E-B5F8-22B6D3BEDCFA}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{8F1071C1-3753-4D32-8BA5-0885ABFB54A4}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{2AD64040-0118-402F-8C55-9AC44B6A1FE1}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{5F6BA7AA-33CE-44AA-A5C3-4E147B50881A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab02.xlsx
+++ b/AfDD_2024_Annex_Table_Tab02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6395DF6-E27A-4118-AB3F-5E7AD737C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{438AD4AF-F8A3-4896-A7A9-DDE9FFEF9BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{0A0F4504-FA1E-48DF-B0FB-4B3E7B1D52C6}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{82655FC6-A17D-4BAA-BDB4-30013514B86E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -1430,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14B68CB-E58D-4058-9BA9-7E1FFCB3B26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F291A1-3FB1-47F7-97F1-2F84C1389E98}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14927,12 +14927,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7E89AA2E-B20F-4805-9CBA-28B250719CE3}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9115DC8A-C3F6-4BEE-A276-E44D929B4A78}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{C8B701B7-0A45-4AFE-989B-C1561347367A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{76EC6D17-AE3D-4A9B-9D48-612C6E6327CB}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{4608ED7D-15F4-4596-BCDC-D0C799519AB1}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{11DEF60E-FBEE-4067-A6E8-32A1F3D63126}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F9D9BB36-45B4-435A-A5EF-3D6DA017EC80}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{99580DDE-58AD-499C-8754-69872BD42FB1}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{15C4438E-ED24-4886-8A10-AE3E2CE4CDD9}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{0F274D25-262C-4E06-9E70-57CE8BD9E23B}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{B22C6B4D-031E-45B9-9EB0-A4442B65F53D}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{29D2D595-9DFB-4C5B-8C9F-DE5EF41DD51F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId7"/>
